--- a/Data/Lecanemab.xlsx
+++ b/Data/Lecanemab.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\shiny_test\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\Alzheimers_Disease_New_Hope\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622BE931-18A6-40C8-9D27-9C791014AEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB539F8C-B89B-41CF-9E2A-FD78B2CA0363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" tabRatio="898" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10886" yWindow="0" windowWidth="11143" windowHeight="11709" tabRatio="898" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="test_diff" sheetId="2" r:id="rId2"/>
     <sheet name="AE" sheetId="3" r:id="rId3"/>
     <sheet name="K-M" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="safety" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>CDR-SB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,11 +176,31 @@
     </r>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>death</t>
+    <t>Death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Participants with ≥1 serious AE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Participants with ≥1 Aes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Study discontinuations due to Aes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecanemab Placebo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Events</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecanemab_Placebo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1017,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70507A0-476E-4473-B078-234860000FA5}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1031,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1097,7 +1117,7 @@
         <v>78</v>
       </c>
       <c r="C7">
-        <v>822</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1143,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197263DC-7569-4A87-913E-E1548F2999E2}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -1253,7 +1273,7 @@
         <v>0.95294117647058818</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E8" si="5">C4/B4</f>
+        <f t="shared" ref="E4:E7" si="5">C4/B4</f>
         <v>4.7058823529411764E-2</v>
       </c>
       <c r="G4">
@@ -1373,7 +1393,7 @@
         <v>0.84115523465703967</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I4:I8" si="6">I6*H7</f>
+        <f t="shared" ref="I7:I8" si="6">I6*H7</f>
         <v>0.57031945168070031</v>
       </c>
       <c r="J7">
@@ -1827,7 +1847,7 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <f t="shared" ref="D22:D38" si="16">C23/B23</f>
+        <f t="shared" ref="D23:D38" si="16">C23/B23</f>
         <v>0</v>
       </c>
       <c r="E23" s="3">
@@ -2409,60 +2429,65 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3751F8A4-B237-490B-8103-F9F5475969C3}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>798</v>
+      </c>
+      <c r="C2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>126</v>
+      </c>
+      <c r="C3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>250</v>
-      </c>
-      <c r="B3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>500</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>750</v>
-      </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1000</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Lecanemab.xlsx
+++ b/Data/Lecanemab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\Alzheimers_Disease_New_Hope\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB539F8C-B89B-41CF-9E2A-FD78B2CA0363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E3C00F-852A-4DCE-BB2F-2795CAA81DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10886" yWindow="0" windowWidth="11143" windowHeight="11709" tabRatio="898" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" tabRatio="898" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -180,18 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Participants with ≥1 serious AE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Participants with ≥1 Aes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Study discontinuations due to Aes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lecanemab Placebo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,6 +189,18 @@
   </si>
   <si>
     <t>Lecanemab_Placebo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Participants with ≥1 AEs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Participants with ≥1 serious Aes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Study discontinuations due to AEs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1037,7 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70507A0-476E-4473-B078-234860000FA5}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2431,24 +2431,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3751F8A4-B237-490B-8103-F9F5475969C3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>798</v>
@@ -2459,7 +2461,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>126</v>
@@ -2470,7 +2472,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>62</v>

--- a/Data/Lecanemab.xlsx
+++ b/Data/Lecanemab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\Alzheimers_Disease_New_Hope\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E3C00F-852A-4DCE-BB2F-2795CAA81DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB19D8-79CD-4388-84D8-1916BB975AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" tabRatio="898" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13251" yWindow="0" windowWidth="8778" windowHeight="11709" tabRatio="898" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="AE" sheetId="3" r:id="rId3"/>
     <sheet name="K-M" sheetId="4" r:id="rId4"/>
     <sheet name="safety" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>CDR-SB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +202,41 @@
   </si>
   <si>
     <t>Study discontinuations due to AEs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>sample_size</t>
+  </si>
+  <si>
+    <t>ci_lower</t>
+  </si>
+  <si>
+    <t>ci_upper</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>CDR-SB</t>
+  </si>
+  <si>
+    <t>ADAS-cog14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2431,8 +2467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3751F8A4-B237-490B-8103-F9F5475969C3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2496,4 +2532,444 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8F4186-9AC8-4625-9356-DB525C12F310}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3.17</v>
+      </c>
+      <c r="D2">
+        <v>1.34</v>
+      </c>
+      <c r="E2">
+        <v>859</v>
+      </c>
+      <c r="F2">
+        <f>C2-1.96*D2/SQRT(E2)</f>
+        <v>3.0803883884124637</v>
+      </c>
+      <c r="G2">
+        <f>C2+1.96*D2/SQRT(E2)</f>
+        <v>3.2596116115875362</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3.22</v>
+      </c>
+      <c r="D3">
+        <v>1.34</v>
+      </c>
+      <c r="E3">
+        <v>875</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="0">C3-1.96*D3/SQRT(E3)</f>
+        <v>3.1312114746152413</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="1">C3+1.96*D3/SQRT(E3)</f>
+        <v>3.3087885253847591</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>C2+1.21</f>
+        <v>4.38</v>
+      </c>
+      <c r="D4">
+        <v>1.34</v>
+      </c>
+      <c r="E4">
+        <v>859</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4.2903883884124632</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>4.4696116115875366</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>C3+1.66</f>
+        <v>4.88</v>
+      </c>
+      <c r="D5">
+        <v>1.34</v>
+      </c>
+      <c r="E5">
+        <v>875</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4.791211474615241</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>4.9687885253847588</v>
+      </c>
+      <c r="H5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>24.45</v>
+      </c>
+      <c r="D7">
+        <v>7.08</v>
+      </c>
+      <c r="E7">
+        <v>859</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>23.976529694000181</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>24.923470305999817</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>24.37</v>
+      </c>
+      <c r="D8">
+        <v>7.56</v>
+      </c>
+      <c r="E8">
+        <v>875</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>23.86907369260539</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>24.870926307394612</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>C7+4.14</f>
+        <v>28.59</v>
+      </c>
+      <c r="D9">
+        <v>7.08</v>
+      </c>
+      <c r="E9">
+        <v>854</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>28.115145679630299</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>29.064854320369701</v>
+      </c>
+      <c r="H9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f>C8+5.58</f>
+        <v>29.950000000000003</v>
+      </c>
+      <c r="D10">
+        <v>7.56</v>
+      </c>
+      <c r="E10">
+        <v>872</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>29.448212747299742</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>30.451787252700264</v>
+      </c>
+      <c r="H10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>41.2</v>
+      </c>
+      <c r="D12">
+        <v>6.6</v>
+      </c>
+      <c r="E12">
+        <v>859</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F15" si="2">C12-1.96*D12/SQRT(E12)</f>
+        <v>40.758629375762887</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G15" si="3">C12+1.96*D12/SQRT(E12)</f>
+        <v>41.641370624237119</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>40.9</v>
+      </c>
+      <c r="D13">
+        <v>6.9</v>
+      </c>
+      <c r="E13">
+        <v>875</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>40.442805354362058</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>41.357194645637939</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f>C12-3.5</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D14">
+        <v>6.6</v>
+      </c>
+      <c r="E14">
+        <v>783</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>37.237705074977946</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>38.16229492502206</v>
+      </c>
+      <c r="H14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f>C13-5.5</f>
+        <v>35.4</v>
+      </c>
+      <c r="D15">
+        <v>6.9</v>
+      </c>
+      <c r="E15">
+        <v>796</v>
+      </c>
+      <c r="F15">
+        <f>C15-1.96*D15/SQRT(E15)</f>
+        <v>34.920654529173362</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>35.879345470826635</v>
+      </c>
+      <c r="H15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>25.5</v>
+      </c>
+      <c r="D17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E17">
+        <v>859</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F18" si="4">C17-1.96*D17/SQRT(E17)</f>
+        <v>25.352876458587627</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G18" si="5">C17+1.96*D17/SQRT(E17)</f>
+        <v>25.647123541412373</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>25.6</v>
+      </c>
+      <c r="D18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E18">
+        <v>875</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>25.454227794144426</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>25.745772205855577</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Lecanemab.xlsx
+++ b/Data/Lecanemab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\Alzheimers_Disease_New_Hope\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB19D8-79CD-4388-84D8-1916BB975AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D882DB3-E024-4190-8CE2-C0B54E6B4530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13251" yWindow="0" windowWidth="8778" windowHeight="11709" tabRatio="898" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" tabRatio="898" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="AE" sheetId="3" r:id="rId3"/>
     <sheet name="K-M" sheetId="4" r:id="rId4"/>
     <sheet name="safety" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="result" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -232,11 +232,11 @@
     <t>CDR-SB</t>
   </si>
   <si>
-    <t>ADAS-cog14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MMSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADAS-Cog14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2539,7 +2539,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2815,7 +2815,7 @@
         <v>859</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F15" si="2">C12-1.96*D12/SQRT(E12)</f>
+        <f t="shared" ref="F12:F14" si="2">C12-1.96*D12/SQRT(E12)</f>
         <v>40.758629375762887</v>
       </c>
       <c r="G12">
@@ -2914,7 +2914,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>

--- a/Data/Lecanemab.xlsx
+++ b/Data/Lecanemab.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\Alzheimers_Disease_New_Hope\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D882DB3-E024-4190-8CE2-C0B54E6B4530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECAF1CE-E902-4F72-97E3-637F64D0D22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" tabRatio="898" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10886" yWindow="0" windowWidth="11143" windowHeight="11709" tabRatio="898" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
-    <sheet name="test_diff" sheetId="2" r:id="rId2"/>
-    <sheet name="AE" sheetId="3" r:id="rId3"/>
+    <sheet name="AE" sheetId="3" r:id="rId1"/>
+    <sheet name="safety" sheetId="5" r:id="rId2"/>
+    <sheet name="result" sheetId="6" r:id="rId3"/>
     <sheet name="K-M" sheetId="4" r:id="rId4"/>
-    <sheet name="safety" sheetId="5" r:id="rId5"/>
-    <sheet name="result" sheetId="6" r:id="rId6"/>
+    <sheet name="test" sheetId="1" r:id="rId5"/>
+    <sheet name="test_diff" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -598,478 +598,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>859</v>
-      </c>
-      <c r="C3">
-        <v>824</v>
-      </c>
-      <c r="D3">
-        <v>798</v>
-      </c>
-      <c r="E3">
-        <v>779</v>
-      </c>
-      <c r="F3">
-        <v>765</v>
-      </c>
-      <c r="G3">
-        <v>738</v>
-      </c>
-      <c r="H3">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>875</v>
-      </c>
-      <c r="C4">
-        <v>849</v>
-      </c>
-      <c r="D4">
-        <v>828</v>
-      </c>
-      <c r="E4">
-        <v>813</v>
-      </c>
-      <c r="F4">
-        <v>779</v>
-      </c>
-      <c r="G4">
-        <v>767</v>
-      </c>
-      <c r="H4">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>354</v>
-      </c>
-      <c r="C8">
-        <v>296</v>
-      </c>
-      <c r="D8">
-        <v>275</v>
-      </c>
-      <c r="F8">
-        <v>276</v>
-      </c>
-      <c r="H8">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>344</v>
-      </c>
-      <c r="C9">
-        <v>303</v>
-      </c>
-      <c r="D9">
-        <v>286</v>
-      </c>
-      <c r="F9">
-        <v>259</v>
-      </c>
-      <c r="H9">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>15</v>
-      </c>
-      <c r="H12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>854</v>
-      </c>
-      <c r="C13">
-        <v>819</v>
-      </c>
-      <c r="D13">
-        <v>793</v>
-      </c>
-      <c r="E13">
-        <v>771</v>
-      </c>
-      <c r="F13">
-        <v>753</v>
-      </c>
-      <c r="G13">
-        <v>730</v>
-      </c>
-      <c r="H13">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>872</v>
-      </c>
-      <c r="C14">
-        <v>844</v>
-      </c>
-      <c r="D14">
-        <v>823</v>
-      </c>
-      <c r="E14">
-        <v>807</v>
-      </c>
-      <c r="F14">
-        <v>770</v>
-      </c>
-      <c r="G14">
-        <v>762</v>
-      </c>
-      <c r="H14">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <v>12</v>
-      </c>
-      <c r="G17">
-        <v>15</v>
-      </c>
-      <c r="H17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>857</v>
-      </c>
-      <c r="C18">
-        <v>820</v>
-      </c>
-      <c r="D18">
-        <v>796</v>
-      </c>
-      <c r="E18">
-        <v>774</v>
-      </c>
-      <c r="F18">
-        <v>757</v>
-      </c>
-      <c r="G18">
-        <v>733</v>
-      </c>
-      <c r="H18">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>875</v>
-      </c>
-      <c r="C19">
-        <v>847</v>
-      </c>
-      <c r="D19">
-        <v>822</v>
-      </c>
-      <c r="E19">
-        <v>808</v>
-      </c>
-      <c r="F19">
-        <v>775</v>
-      </c>
-      <c r="G19">
-        <v>764</v>
-      </c>
-      <c r="H19">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-      <c r="E22">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <v>15</v>
-      </c>
-      <c r="H22">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>783</v>
-      </c>
-      <c r="D23">
-        <v>756</v>
-      </c>
-      <c r="F23">
-        <v>716</v>
-      </c>
-      <c r="H23">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>796</v>
-      </c>
-      <c r="D24">
-        <v>783</v>
-      </c>
-      <c r="F24">
-        <v>739</v>
-      </c>
-      <c r="H24">
-        <v>707</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C27928-5102-44BA-925E-81A92C5497E5}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>-0.67</v>
-      </c>
-      <c r="C2">
-        <v>-0.45</v>
-      </c>
-      <c r="D2">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>-2.27</v>
-      </c>
-      <c r="C3">
-        <v>-1.44</v>
-      </c>
-      <c r="D3">
-        <v>-0.61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>-7.3999999999999996E-2</v>
-      </c>
-      <c r="C4">
-        <v>-0.05</v>
-      </c>
-      <c r="D4">
-        <v>-2.7E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>1.2</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70507A0-476E-4473-B078-234860000FA5}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -1187,6 +715,517 @@
       </c>
       <c r="C10">
         <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3751F8A4-B237-490B-8103-F9F5475969C3}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>798</v>
+      </c>
+      <c r="C2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>126</v>
+      </c>
+      <c r="C3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8F4186-9AC8-4625-9356-DB525C12F310}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3.17</v>
+      </c>
+      <c r="D2">
+        <v>1.34</v>
+      </c>
+      <c r="E2">
+        <v>859</v>
+      </c>
+      <c r="F2">
+        <f>C2-1.96*D2/SQRT(E2)</f>
+        <v>3.0803883884124637</v>
+      </c>
+      <c r="G2">
+        <f>C2+1.96*D2/SQRT(E2)</f>
+        <v>3.2596116115875362</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3.22</v>
+      </c>
+      <c r="D3">
+        <v>1.34</v>
+      </c>
+      <c r="E3">
+        <v>875</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="0">C3-1.96*D3/SQRT(E3)</f>
+        <v>3.1312114746152413</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="1">C3+1.96*D3/SQRT(E3)</f>
+        <v>3.3087885253847591</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>C2+1.21</f>
+        <v>4.38</v>
+      </c>
+      <c r="D4">
+        <v>1.34</v>
+      </c>
+      <c r="E4">
+        <v>859</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4.2903883884124632</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>4.4696116115875366</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>C3+1.66</f>
+        <v>4.88</v>
+      </c>
+      <c r="D5">
+        <v>1.34</v>
+      </c>
+      <c r="E5">
+        <v>875</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4.791211474615241</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>4.9687885253847588</v>
+      </c>
+      <c r="H5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>24.45</v>
+      </c>
+      <c r="D6">
+        <v>7.08</v>
+      </c>
+      <c r="E6">
+        <v>859</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>23.976529694000181</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>24.923470305999817</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>24.37</v>
+      </c>
+      <c r="D7">
+        <v>7.56</v>
+      </c>
+      <c r="E7">
+        <v>875</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>23.86907369260539</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>24.870926307394612</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>C6+4.14</f>
+        <v>28.59</v>
+      </c>
+      <c r="D8">
+        <v>7.08</v>
+      </c>
+      <c r="E8">
+        <v>854</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>28.115145679630299</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>29.064854320369701</v>
+      </c>
+      <c r="H8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f>C7+5.58</f>
+        <v>29.950000000000003</v>
+      </c>
+      <c r="D9">
+        <v>7.56</v>
+      </c>
+      <c r="E9">
+        <v>872</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>29.448212747299742</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>30.451787252700264</v>
+      </c>
+      <c r="H9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>41.2</v>
+      </c>
+      <c r="D10">
+        <v>6.6</v>
+      </c>
+      <c r="E10">
+        <v>859</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F12" si="2">C10-1.96*D10/SQRT(E10)</f>
+        <v>40.758629375762887</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G13" si="3">C10+1.96*D10/SQRT(E10)</f>
+        <v>41.641370624237119</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>40.9</v>
+      </c>
+      <c r="D11">
+        <v>6.9</v>
+      </c>
+      <c r="E11">
+        <v>875</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>40.442805354362058</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>41.357194645637939</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f>C10-3.5</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D12">
+        <v>6.6</v>
+      </c>
+      <c r="E12">
+        <v>783</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>37.237705074977946</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>38.16229492502206</v>
+      </c>
+      <c r="H12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f>C11-5.5</f>
+        <v>35.4</v>
+      </c>
+      <c r="D13">
+        <v>6.9</v>
+      </c>
+      <c r="E13">
+        <v>796</v>
+      </c>
+      <c r="F13">
+        <f>C13-1.96*D13/SQRT(E13)</f>
+        <v>34.920654529173362</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>35.879345470826635</v>
+      </c>
+      <c r="H13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>25.5</v>
+      </c>
+      <c r="D14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E14">
+        <v>859</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F15" si="4">C14-1.96*D14/SQRT(E14)</f>
+        <v>25.352876458587627</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G15" si="5">C14+1.96*D14/SQRT(E14)</f>
+        <v>25.647123541412373</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>25.6</v>
+      </c>
+      <c r="D15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E15">
+        <v>875</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>25.454227794144426</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>25.745772205855577</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2464,68 +2503,383 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3751F8A4-B237-490B-8103-F9F5475969C3}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>859</v>
+      </c>
+      <c r="C3">
+        <v>824</v>
+      </c>
+      <c r="D3">
         <v>798</v>
       </c>
-      <c r="C2">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>126</v>
-      </c>
-      <c r="C3">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>779</v>
+      </c>
+      <c r="F3">
+        <v>765</v>
+      </c>
+      <c r="G3">
+        <v>738</v>
+      </c>
+      <c r="H3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>875</v>
       </c>
       <c r="C4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5">
+        <v>849</v>
+      </c>
+      <c r="D4">
+        <v>828</v>
+      </c>
+      <c r="E4">
+        <v>813</v>
+      </c>
+      <c r="F4">
+        <v>779</v>
+      </c>
+      <c r="G4">
+        <v>767</v>
+      </c>
+      <c r="H4">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>7</v>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>354</v>
+      </c>
+      <c r="C8">
+        <v>296</v>
+      </c>
+      <c r="D8">
+        <v>275</v>
+      </c>
+      <c r="F8">
+        <v>276</v>
+      </c>
+      <c r="H8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>344</v>
+      </c>
+      <c r="C9">
+        <v>303</v>
+      </c>
+      <c r="D9">
+        <v>286</v>
+      </c>
+      <c r="F9">
+        <v>259</v>
+      </c>
+      <c r="H9">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>854</v>
+      </c>
+      <c r="C13">
+        <v>819</v>
+      </c>
+      <c r="D13">
+        <v>793</v>
+      </c>
+      <c r="E13">
+        <v>771</v>
+      </c>
+      <c r="F13">
+        <v>753</v>
+      </c>
+      <c r="G13">
+        <v>730</v>
+      </c>
+      <c r="H13">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>872</v>
+      </c>
+      <c r="C14">
+        <v>844</v>
+      </c>
+      <c r="D14">
+        <v>823</v>
+      </c>
+      <c r="E14">
+        <v>807</v>
+      </c>
+      <c r="F14">
+        <v>770</v>
+      </c>
+      <c r="G14">
+        <v>762</v>
+      </c>
+      <c r="H14">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>857</v>
+      </c>
+      <c r="C18">
+        <v>820</v>
+      </c>
+      <c r="D18">
+        <v>796</v>
+      </c>
+      <c r="E18">
+        <v>774</v>
+      </c>
+      <c r="F18">
+        <v>757</v>
+      </c>
+      <c r="G18">
+        <v>733</v>
+      </c>
+      <c r="H18">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>875</v>
+      </c>
+      <c r="C19">
+        <v>847</v>
+      </c>
+      <c r="D19">
+        <v>822</v>
+      </c>
+      <c r="E19">
+        <v>808</v>
+      </c>
+      <c r="F19">
+        <v>775</v>
+      </c>
+      <c r="G19">
+        <v>764</v>
+      </c>
+      <c r="H19">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>783</v>
+      </c>
+      <c r="D23">
+        <v>756</v>
+      </c>
+      <c r="F23">
+        <v>716</v>
+      </c>
+      <c r="H23">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>796</v>
+      </c>
+      <c r="D24">
+        <v>783</v>
+      </c>
+      <c r="F24">
+        <v>739</v>
+      </c>
+      <c r="H24">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -2535,437 +2889,83 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8F4186-9AC8-4625-9356-DB525C12F310}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C27928-5102-44BA-925E-81A92C5497E5}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-0.67</v>
       </c>
       <c r="C2">
-        <v>3.17</v>
+        <v>-0.45</v>
       </c>
       <c r="D2">
-        <v>1.34</v>
-      </c>
-      <c r="E2">
-        <v>859</v>
-      </c>
-      <c r="F2">
-        <f>C2-1.96*D2/SQRT(E2)</f>
-        <v>3.0803883884124637</v>
-      </c>
-      <c r="G2">
-        <f>C2+1.96*D2/SQRT(E2)</f>
-        <v>3.2596116115875362</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-2.27</v>
+      </c>
+      <c r="C3">
+        <v>-1.44</v>
+      </c>
+      <c r="D3">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="C4">
+        <v>-0.05</v>
+      </c>
+      <c r="D4">
+        <v>-2.7E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1.2</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>3.22</v>
-      </c>
-      <c r="D3">
-        <v>1.34</v>
-      </c>
-      <c r="E3">
-        <v>875</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F10" si="0">C3-1.96*D3/SQRT(E3)</f>
-        <v>3.1312114746152413</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G10" si="1">C3+1.96*D3/SQRT(E3)</f>
-        <v>3.3087885253847591</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f>C2+1.21</f>
-        <v>4.38</v>
-      </c>
-      <c r="D4">
-        <v>1.34</v>
-      </c>
-      <c r="E4">
-        <v>859</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>4.2903883884124632</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>4.4696116115875366</v>
-      </c>
-      <c r="H4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <f>C3+1.66</f>
-        <v>4.88</v>
-      </c>
       <c r="D5">
-        <v>1.34</v>
-      </c>
-      <c r="E5">
-        <v>875</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>4.791211474615241</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>4.9687885253847588</v>
-      </c>
-      <c r="H5">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>24.45</v>
-      </c>
-      <c r="D7">
-        <v>7.08</v>
-      </c>
-      <c r="E7">
-        <v>859</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>23.976529694000181</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>24.923470305999817</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>24.37</v>
-      </c>
-      <c r="D8">
-        <v>7.56</v>
-      </c>
-      <c r="E8">
-        <v>875</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>23.86907369260539</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>24.870926307394612</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <f>C7+4.14</f>
-        <v>28.59</v>
-      </c>
-      <c r="D9">
-        <v>7.08</v>
-      </c>
-      <c r="E9">
-        <v>854</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>28.115145679630299</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>29.064854320369701</v>
-      </c>
-      <c r="H9">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <f>C8+5.58</f>
-        <v>29.950000000000003</v>
-      </c>
-      <c r="D10">
-        <v>7.56</v>
-      </c>
-      <c r="E10">
-        <v>872</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>29.448212747299742</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>30.451787252700264</v>
-      </c>
-      <c r="H10">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>41.2</v>
-      </c>
-      <c r="D12">
-        <v>6.6</v>
-      </c>
-      <c r="E12">
-        <v>859</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ref="F12:F14" si="2">C12-1.96*D12/SQRT(E12)</f>
-        <v>40.758629375762887</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ref="G12:G15" si="3">C12+1.96*D12/SQRT(E12)</f>
-        <v>41.641370624237119</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>40.9</v>
-      </c>
-      <c r="D13">
-        <v>6.9</v>
-      </c>
-      <c r="E13">
-        <v>875</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>40.442805354362058</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>41.357194645637939</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <f>C12-3.5</f>
-        <v>37.700000000000003</v>
-      </c>
-      <c r="D14">
-        <v>6.6</v>
-      </c>
-      <c r="E14">
-        <v>783</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>37.237705074977946</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>38.16229492502206</v>
-      </c>
-      <c r="H14">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <f>C13-5.5</f>
-        <v>35.4</v>
-      </c>
-      <c r="D15">
-        <v>6.9</v>
-      </c>
-      <c r="E15">
-        <v>796</v>
-      </c>
-      <c r="F15">
-        <f>C15-1.96*D15/SQRT(E15)</f>
-        <v>34.920654529173362</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>35.879345470826635</v>
-      </c>
-      <c r="H15">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>25.5</v>
-      </c>
-      <c r="D17">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E17">
-        <v>859</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F18" si="4">C17-1.96*D17/SQRT(E17)</f>
-        <v>25.352876458587627</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ref="G17:G18" si="5">C17+1.96*D17/SQRT(E17)</f>
-        <v>25.647123541412373</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>25.6</v>
-      </c>
-      <c r="D18">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E18">
-        <v>875</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="4"/>
-        <v>25.454227794144426</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="5"/>
-        <v>25.745772205855577</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Lecanemab.xlsx
+++ b/Data/Lecanemab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\Alzheimers_Disease_New_Hope\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECAF1CE-E902-4F72-97E3-637F64D0D22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFE10DD-BCA0-4ED7-972A-43020E0CA2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10886" yWindow="0" windowWidth="11143" windowHeight="11709" tabRatio="898" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2126" yWindow="2126" windowWidth="17477" windowHeight="7268" tabRatio="898" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AE" sheetId="3" r:id="rId1"/>
@@ -727,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3751F8A4-B237-490B-8103-F9F5475969C3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8F4186-9AC8-4625-9356-DB525C12F310}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
